--- a/src/test/java/dataProvider/TestData.xlsx
+++ b/src/test/java/dataProvider/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2505" windowWidth="16020" windowHeight="5190" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2505" windowWidth="16020" windowHeight="5190" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="BLUE1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="simple" sheetId="4" r:id="rId4"/>
     <sheet name="MKT" sheetId="7" r:id="rId5"/>
     <sheet name="HPI" sheetId="8" r:id="rId6"/>
+    <sheet name="MRCdashboard" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0" concurrentManualCount="8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="123">
   <si>
     <t>URL</t>
   </si>
@@ -280,6 +281,114 @@
   </si>
   <si>
     <t>CD</t>
+  </si>
+  <si>
+    <t>ES_Desktop_Verify Citi Savings Account package modules in Savings Tab under Banking Overview Page for post login</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Saving</t>
+  </si>
+  <si>
+    <t>CitiSavingsAccount</t>
+  </si>
+  <si>
+    <t>uat3fb_8155</t>
+  </si>
+  <si>
+    <t>test@123</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>ES_Desktop_Verify Citi Priority modules in Checking Tab under Banking Overview Page for post login</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
+  <si>
+    <t>CitiPriority</t>
+  </si>
+  <si>
+    <t>EN_Desktop_Verify CitiGold modules in Checking Tab under Banking Overview Page for pre login</t>
+  </si>
+  <si>
+    <t>CitiGold</t>
+  </si>
+  <si>
+    <t>EN_Desktop_Verify Citibank Account modules in Checking Tab under Banking Overview Page for pre login</t>
+  </si>
+  <si>
+    <t>EN_Desktop_Verify Basic Banking modules in Checking Tab under Banking Overview Page for pre login</t>
+  </si>
+  <si>
+    <t>BasicBanking</t>
+  </si>
+  <si>
+    <t>EN_Desktop_Verify Access Accounts modules in Checking Tab under Banking Overview Page for pre login</t>
+  </si>
+  <si>
+    <t>AccessAccount</t>
+  </si>
+  <si>
+    <t>EN_Desktop_Verify Citi Priority modules in Checking Tab under Banking Overview Page for pre login</t>
+  </si>
+  <si>
+    <t>EN_Desktop_Verify Checking Tab modules under Banking Overview Page for pre login</t>
+  </si>
+  <si>
+    <t>EN_Desktop_Verify CDs and IRAs Tab for pre login under Banking Overview Page</t>
+  </si>
+  <si>
+    <t>EN_Desktop_Verify CDs&amp;IRAs Tab modules under Banking Overview Page for pre login</t>
+  </si>
+  <si>
+    <t>EN_Desktop_CD Laddering page Entry point_Banking Overview page_Pre Login Customer</t>
+  </si>
+  <si>
+    <t>EN_Desktop_Verify Savings Tab modules under Banking Overview Page for post login</t>
+  </si>
+  <si>
+    <t>EN_Desktop_Verify CitiGold modules in Checking Tab under Banking Overview Page for post login</t>
+  </si>
+  <si>
+    <t>EN_Desktop_Verify Citibank Account modules in Checking Tab under Banking Overview Page for post login</t>
+  </si>
+  <si>
+    <t>CitiBank</t>
+  </si>
+  <si>
+    <t>EN_Desktop_Verify Access Accounts modules in Checking Tab under Banking Overview Page for post login</t>
+  </si>
+  <si>
+    <t>EN_Desktop_Verify Citi Priority modules in Checking Tab under Banking Overview Page for post login</t>
+  </si>
+  <si>
+    <t>EN_Desktop_Verify CDs and IRAs Tab for post login under Banking Overview Page</t>
+  </si>
+  <si>
+    <t>EN_Desktop_Verify IRAs package module for post login under CDs and Banking IRAs under Banking Overview Page</t>
+  </si>
+  <si>
+    <t>EN_Desktop_Verify CDs package module for post login under CDs and Banking IRAs under Banking Overview Page</t>
+  </si>
+  <si>
+    <t>Bank-Account Management-Account Summary-EN_Account Snapshot_CBOL-Positive Flow</t>
+  </si>
+  <si>
+    <t>UAT2</t>
+  </si>
+  <si>
+    <t>https://uat2.online.citi.com/US/login.do</t>
+  </si>
+  <si>
+    <t>uat2_u2_6383</t>
   </si>
 </sst>
 </file>
@@ -328,27 +437,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -362,7 +456,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1924,10 +2018,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,11 +2030,12 @@
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
@@ -1969,15 +2064,15 @@
         <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>85</v>
+      <c r="A3" t="s">
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
@@ -2006,14 +2101,913 @@
         <v>82</v>
       </c>
       <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
         <v>83</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>79</v>
+      </c>
+      <c r="E39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H24" r:id="rId1"/>
+    <hyperlink ref="H26" r:id="rId2"/>
+    <hyperlink ref="H28" r:id="rId3"/>
+    <hyperlink ref="H30" r:id="rId4"/>
+    <hyperlink ref="H32" r:id="rId5"/>
+    <hyperlink ref="H34" r:id="rId6"/>
+    <hyperlink ref="H36" r:id="rId7"/>
+    <hyperlink ref="H38" r:id="rId8"/>
+    <hyperlink ref="H40" r:id="rId9"/>
+    <hyperlink ref="H42" r:id="rId10"/>
+    <hyperlink ref="H44" r:id="rId11"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>